--- a/config_3.23/game_module_config_cjj.xlsx
+++ b/config_3.23/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4879,10 +4879,10 @@
   <dimension ref="A1:AJ325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C282" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
+      <selection pane="bottomRight" activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12188,29 +12188,29 @@
         <v>640</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A288" s="16">
+    <row r="288" spans="1:9" s="51" customFormat="1" ht="16.5">
+      <c r="A288" s="52">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="50" t="s">
         <v>853</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="50" t="s">
         <v>854</v>
       </c>
-      <c r="D288" s="15" t="s">
+      <c r="D288" s="50" t="s">
         <v>855</v>
       </c>
-      <c r="E288" s="17">
-        <v>1</v>
-      </c>
-      <c r="F288" s="17">
-        <v>1</v>
-      </c>
-      <c r="G288" s="17">
-        <v>1</v>
-      </c>
-      <c r="I288" s="15" t="s">
+      <c r="E288" s="51">
+        <v>1</v>
+      </c>
+      <c r="F288" s="51">
+        <v>1</v>
+      </c>
+      <c r="G288" s="51">
+        <v>1</v>
+      </c>
+      <c r="I288" s="50" t="s">
         <v>731</v>
       </c>
     </row>
@@ -12776,29 +12776,29 @@
         <v>902</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="51" customFormat="1" ht="16.5">
+    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="49" t="s">
+      <c r="B305" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="C305" s="50" t="s">
+      <c r="C305" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="D305" s="49" t="s">
+      <c r="D305" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="E305" s="51">
-        <v>1</v>
-      </c>
-      <c r="F305" s="51">
-        <v>1</v>
-      </c>
-      <c r="G305" s="51">
-        <v>1</v>
-      </c>
-      <c r="I305" s="50" t="s">
+      <c r="E305" s="17">
+        <v>0</v>
+      </c>
+      <c r="F305" s="17">
+        <v>0</v>
+      </c>
+      <c r="G305" s="17">
+        <v>0</v>
+      </c>
+      <c r="I305" s="15" t="s">
         <v>912</v>
       </c>
     </row>

--- a/config_3.23/game_module_config_cjj.xlsx
+++ b/config_3.23/game_module_config_cjj.xlsx
@@ -4134,10 +4134,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4181,10 +4177,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_006_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>换好礼皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4210,6 +4202,14 @@
   </si>
   <si>
     <t>消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_007_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月29日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4879,10 +4879,10 @@
   <dimension ref="A1:AJ325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G289" sqref="G289"/>
+      <selection pane="bottomRight" activeCell="I317" sqref="I317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11902,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12833,7 +12833,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12960,10 +12960,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="C312" s="50" t="s">
         <v>983</v>
-      </c>
-      <c r="C312" s="50" t="s">
-        <v>984</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -12983,10 +12983,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
+        <v>984</v>
+      </c>
+      <c r="C313" s="50" t="s">
         <v>985</v>
-      </c>
-      <c r="C313" s="50" t="s">
-        <v>986</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -13006,10 +13006,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13021,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13029,10 +13029,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="55" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13052,10 +13052,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13075,25 +13075,25 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C317" s="50" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D317" s="49" t="s">
+        <v>976</v>
+      </c>
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
         <v>977</v>
-      </c>
-      <c r="E317" s="51">
-        <v>1</v>
-      </c>
-      <c r="F317" s="51">
-        <v>1</v>
-      </c>
-      <c r="G317" s="51">
-        <v>1</v>
-      </c>
-      <c r="I317" s="50" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13101,10 +13101,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
+        <v>978</v>
+      </c>
+      <c r="C318" s="15" t="s">
         <v>979</v>
-      </c>
-      <c r="C318" s="15" t="s">
-        <v>980</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">

--- a/config_3.23/game_module_config_cjj.xlsx
+++ b/config_3.23/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="994">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4106,34 +4106,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4161,18 +4133,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_008_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落排行榜皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_010_taohua</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动boss皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4189,10 +4153,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_009</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4210,6 +4170,18 @@
   </si>
   <si>
     <t>3月29日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_009_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_010</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4882,7 +4854,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I317" sqref="I317"/>
+      <selection pane="bottomRight" activeCell="I318" sqref="I318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11902,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12833,7 +12805,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12960,10 +12932,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -12975,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12983,10 +12955,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -12998,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13006,10 +12978,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13021,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13029,10 +13001,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13044,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="55" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13052,10 +13024,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13075,25 +13047,25 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C317" s="50" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D317" s="49" t="s">
+        <v>975</v>
+      </c>
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
         <v>976</v>
-      </c>
-      <c r="E317" s="51">
-        <v>1</v>
-      </c>
-      <c r="F317" s="51">
-        <v>1</v>
-      </c>
-      <c r="G317" s="51">
-        <v>1</v>
-      </c>
-      <c r="I317" s="50" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13101,10 +13073,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
+        <v>977</v>
+      </c>
+      <c r="C318" s="15" t="s">
         <v>978</v>
-      </c>
-      <c r="C318" s="15" t="s">
-        <v>979</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13117,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">

--- a/config_3.23/game_module_config_cjj.xlsx
+++ b/config_3.23/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1001">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4183,6 +4183,33 @@
   <si>
     <t>sys_act_base_style/sys_act_base_weekly_010</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgxxl_tower_climbing</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐爬塔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGXXL_Tower_ClimbingManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_phb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DPHBManager</t>
   </si>
 </sst>
 </file>
@@ -4848,13 +4875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ325"/>
+  <dimension ref="A1:AJ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I318" sqref="I318"/>
+      <selection pane="bottomRight" activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13274,6 +13301,58 @@
         <v>863</v>
       </c>
     </row>
+    <row r="326" spans="1:9" ht="16.5">
+      <c r="A326" s="16">
+        <v>325</v>
+      </c>
+      <c r="B326" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="C326" t="s">
+        <v>995</v>
+      </c>
+      <c r="D326" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
+      <c r="A327" s="16">
+        <v>326</v>
+      </c>
+      <c r="B327" s="35" t="s">
+        <v>998</v>
+      </c>
+      <c r="C327" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="D327" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E327" s="30">
+        <v>1</v>
+      </c>
+      <c r="F327" s="30">
+        <v>1</v>
+      </c>
+      <c r="G327" s="30">
+        <v>1</v>
+      </c>
+      <c r="I327" s="37" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>
